--- a/VT_REG1_ELCDMD_K03.xlsx
+++ b/VT_REG1_ELCDMD_K03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170282B3-3D3A-4134-88C5-6F28CE114E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DC1A6-6A52-451A-8845-70629CC129DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>*Used to be ANNUAL **</t>
+  </si>
+  <si>
+    <t>ELC_PRIS</t>
+  </si>
+  <si>
+    <t>Electricity price - Dummy stand in for export</t>
+  </si>
+  <si>
+    <t>OUTPUT~ELC_PRIS</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1032,20 +1044,22 @@
     <col min="5" max="5" width="53.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="4"/>
+    <col min="8" max="11" width="10.88671875" style="4"/>
+    <col min="12" max="12" width="15.77734375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1069,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="E6" s="9"/>
@@ -1066,7 +1080,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1092,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1110,22 +1124,25 @@
         <v>15</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="Q8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>Processes!D3</f>
         <v>ELC_DMD</v>
@@ -1136,16 +1153,18 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="str">
-        <f>Commodities!D5</f>
+        <f>Commodities!D6</f>
         <v>ELC</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>Commodities!D4</f>
         <v>ELC_DEM</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="7">
@@ -1154,18 +1173,30 @@
       <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
         <v>50</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f>8760*3.6/10^6</f>
         <v>3.1536000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="22"/>
+    </row>
     <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1248,24 +1279,44 @@
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
+      <c r="D5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1279,7 +1330,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1420,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1444,14 +1495,14 @@
         <v>61</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f>Commodities!$E$5</f>
+        <f>Commodities!$E$6</f>
         <v xml:space="preserve">Electricity </v>
       </c>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -1466,14 +1517,14 @@
         <v>61</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f>Commodities!$E$5</f>
+        <f>Commodities!$E$6</f>
         <v xml:space="preserve">Electricity </v>
       </c>
       <c r="E6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G6" s="15">
         <v>10</v>
@@ -1488,14 +1539,14 @@
         <v>61</v>
       </c>
       <c r="D7" s="15" t="str">
-        <f>Commodities!$E$5</f>
+        <f>Commodities!$E$6</f>
         <v xml:space="preserve">Electricity </v>
       </c>
       <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G7" s="19">
         <f>G6*(1+$I$4)</f>
@@ -1511,14 +1562,14 @@
         <v>61</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f>Commodities!$E$5</f>
+        <f>Commodities!$E$6</f>
         <v xml:space="preserve">Electricity </v>
       </c>
       <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G8" s="19">
         <f>G7*(1+$I$4)</f>

--- a/VT_REG1_ELCDMD_K03.xlsx
+++ b/VT_REG1_ELCDMD_K03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DC1A6-6A52-451A-8845-70629CC129DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B2FA4-84CD-4E5A-AA2E-CF7FA2F120F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -284,12 +284,18 @@
   </si>
   <si>
     <t>OUTPUT~ELC_PRIS</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,7 +458,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,9 +479,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,7 +964,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1173,8 +1178,8 @@
       <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
+      <c r="L9" s="21">
+        <v>0</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1188,14 +1193,11 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="20"/>
-    </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="21"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="22"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1211,7 +1213,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
@@ -1420,7 +1422,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG1_ELCDMD_K03.xlsx
+++ b/VT_REG1_ELCDMD_K03.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B2FA4-84CD-4E5A-AA2E-CF7FA2F120F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0F394-2E99-423B-8CEA-6912D022C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="4" r:id="rId2"/>
-    <sheet name="Commodities" sheetId="5" r:id="rId3"/>
-    <sheet name="Processes" sheetId="6" r:id="rId4"/>
-    <sheet name="Demand" sheetId="8" r:id="rId5"/>
+    <sheet name="FT-ELCP" sheetId="9" r:id="rId3"/>
+    <sheet name="Commodities" sheetId="5" r:id="rId4"/>
+    <sheet name="Processes" sheetId="6" r:id="rId5"/>
+    <sheet name="Demand" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -103,190 +104,205 @@
     <t>Comm-OUT</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>NCAP_FOM</t>
+  </si>
+  <si>
+    <t>ACT_COST</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>NCAP_TLIFE</t>
+  </si>
+  <si>
+    <t>PRC_CAPACT</t>
+  </si>
+  <si>
+    <t>* Characterize processes</t>
+  </si>
+  <si>
+    <t>Flexible layout of the column headers</t>
+  </si>
+  <si>
+    <t>Typical structure used for fossil mining, import/export, renewable resources availability, power plants, industry, generic process and end-use devices</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>Ctype</t>
+  </si>
+  <si>
+    <t>CTSLvl</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>CommDesc</t>
+  </si>
+  <si>
+    <t>CommName</t>
+  </si>
+  <si>
+    <t>CSet</t>
+  </si>
+  <si>
+    <t>~FI_Comm</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>PrimaryCG</t>
+  </si>
+  <si>
+    <t>Tslvl</t>
+  </si>
+  <si>
+    <t>Tcap</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>~FI_Process</t>
+  </si>
+  <si>
+    <t>Demand Value</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>*Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>*CommDesc</t>
+  </si>
+  <si>
+    <t>~FI_T:</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>ELC_DMD</t>
+  </si>
+  <si>
+    <t>ELC_DEM</t>
+  </si>
+  <si>
+    <t>DEMAND</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>Portefolio electricity demand process</t>
+  </si>
+  <si>
+    <t>Portefolio electricity demand commodity</t>
+  </si>
+  <si>
+    <t>Growth pr. year</t>
+  </si>
+  <si>
+    <t>*Said MW before</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>*Used to be ANNUAL **</t>
+  </si>
+  <si>
+    <t>ELC_PRIS</t>
+  </si>
+  <si>
+    <t>Electricity price - Dummy stand in for export</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>PASTI</t>
+  </si>
+  <si>
+    <t>Fuel Technology - Large Data Centers Electricity</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>FT-ELCP</t>
+  </si>
+  <si>
+    <t>ELCP</t>
+  </si>
+  <si>
     <t>Comm-OUT-A</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>CURR</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>NCAP_FOM</t>
-  </si>
-  <si>
-    <t>ACT_COST</t>
-  </si>
-  <si>
-    <t>NCAP_COST</t>
-  </si>
-  <si>
-    <t>NCAP_TLIFE</t>
-  </si>
-  <si>
-    <t>PRC_CAPACT</t>
-  </si>
-  <si>
-    <t>* Characterize processes</t>
-  </si>
-  <si>
-    <t>Flexible layout of the column headers</t>
-  </si>
-  <si>
-    <t>Typical structure used for fossil mining, import/export, renewable resources availability, power plants, industry, generic process and end-use devices</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>Ctype</t>
-  </si>
-  <si>
-    <t>CTSLvl</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>CommDesc</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>CSet</t>
-  </si>
-  <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>Tcap</t>
-  </si>
-  <si>
-    <t>Tact</t>
-  </si>
-  <si>
-    <t>TechDesc</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>~FI_Process</t>
-  </si>
-  <si>
-    <t>Demand Value</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>*Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>*Unit</t>
-  </si>
-  <si>
-    <t>*CommDesc</t>
-  </si>
-  <si>
-    <t>~FI_T:</t>
-  </si>
-  <si>
-    <t>Stocks</t>
-  </si>
-  <si>
-    <t>Commodities</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>ELC_DMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity </t>
-  </si>
-  <si>
-    <t>ELC_DEM</t>
-  </si>
-  <si>
-    <t>DEMAND</t>
-  </si>
-  <si>
-    <t>REG1</t>
-  </si>
-  <si>
-    <t>Portefolio electricity demand process</t>
-  </si>
-  <si>
-    <t>Portefolio electricity demand commodity</t>
-  </si>
-  <si>
-    <t>Growth pr. year</t>
-  </si>
-  <si>
-    <t>*Said MW before</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>*Changed from Annual to DAYNITE</t>
-  </si>
-  <si>
-    <t>*Used to be ANNUAL **</t>
-  </si>
-  <si>
-    <t>ELC_PRIS</t>
-  </si>
-  <si>
-    <t>Electricity price - Dummy stand in for export</t>
+    <t>VDA_FLOP</t>
+  </si>
+  <si>
+    <t>Portefolio electricity commodity</t>
+  </si>
+  <si>
+    <t>Electricity for portefolio fuel transformation process</t>
   </si>
   <si>
     <t>OUTPUT~ELC_PRIS</t>
-  </si>
-  <si>
-    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -294,9 +310,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +379,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +444,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,14 +508,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,14 +557,41 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="24" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="24" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{21F3E07D-1E85-4F9B-84DB-8836DAA76406}"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{1A9CCC77-5C06-4D49-9EC1-68549F85D869}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="2" xr:uid="{4C17738F-5693-497F-AE20-5DFB7508CC13}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1F1EDD78-0413-4226-BF6C-6CF1E3568628}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{BC910FD9-A638-4E62-8690-D2D8D8B54F31}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{70C63CF0-4236-4CFF-8E36-3D025DA4A90C}"/>
     <cellStyle name="Normal 4 2" xfId="4" xr:uid="{126190D0-9569-48F8-BA6F-60352D8A1C71}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{A1D29C26-65A5-4CD8-B320-6DA783614F68}"/>
+    <cellStyle name="Normal 9 2" xfId="8" xr:uid="{F4C7C975-D054-49CC-82CF-478963AC271F}"/>
+    <cellStyle name="Normale_B2020" xfId="9" xr:uid="{4ED3BD5E-742F-4B3D-BA7A-D82FE97B2B50}"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{79CDAF1B-61E7-4605-84E1-F45C5BE80B4C}"/>
+    <cellStyle name="Percent 3" xfId="12" xr:uid="{4FF5A272-88D0-417B-97A3-1EC25D9444B1}"/>
+    <cellStyle name="Percent 3 2" xfId="13" xr:uid="{FFDD1ED0-F292-43D7-8877-20B158C21D2D}"/>
+    <cellStyle name="Percent 3 3" xfId="14" xr:uid="{B6003260-104E-4A1F-B500-4D157508C2CC}"/>
+    <cellStyle name="Percent 3 4" xfId="15" xr:uid="{8A4B2EEE-579F-4D9D-A1FD-91F60622B78A}"/>
+    <cellStyle name="Percent 4" xfId="16" xr:uid="{AD4322A7-EB5F-4221-A989-878A5CABDF6B}"/>
+    <cellStyle name="Percent 4 2" xfId="17" xr:uid="{FA91DA63-0739-4019-8F86-E5A523DBCA07}"/>
+    <cellStyle name="Percent 4 3" xfId="18" xr:uid="{0845137B-17D3-42F5-B059-DB22B5CC0C0B}"/>
+    <cellStyle name="Percent 4 4" xfId="19" xr:uid="{D76FDB30-12E1-46A4-859F-F8B68D79D7D0}"/>
+    <cellStyle name="Percent 5" xfId="20" xr:uid="{2516EBA9-FC33-4DC5-81B7-F335857CB087}"/>
+    <cellStyle name="Percent 6" xfId="21" xr:uid="{7A4259DB-32DE-4D97-B210-4160EACFA4B4}"/>
+    <cellStyle name="Percent 7" xfId="22" xr:uid="{7AAEEAF5-3387-4482-9625-5D4F0245F764}"/>
+    <cellStyle name="Procent 2" xfId="10" xr:uid="{5D5C6823-FF29-48F7-80E7-AB1077067D79}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="23" xr:uid="{EEA173FA-D340-4644-91D1-E5CB3EF9582C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,6 +765,255 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1600970</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2270606</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstfelt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9DA177-76FA-65A8-DA5F-28773B696347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674485" y="1554789"/>
+          <a:ext cx="2509212" cy="992908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>PASTI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
+            <a:t> is any investment that takes place before the timeline is set. </a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstfelt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0253D573-4FB7-7DEF-D702-F9ADC7B863AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9441180" y="929640"/>
+          <a:ext cx="1409700" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>ELCP is the output from FT-ELCTP. This value is set to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
+            <a:t> enter the ELC_DMD process. </a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstfelt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007F907D-F4B9-17CA-77CF-CD411A585044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10675620" y="487680"/>
+          <a:ext cx="2179320" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>New process added, which</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
+            <a:t> is FT-ELCP, set to a set of PRE - which translates to any sort of fuel technologies - generic process apparently. </a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -964,7 +1317,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,22 +1362,22 @@
     </row>
     <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1045,59 +1398,58 @@
     <col min="1" max="1" width="10.88671875" style="4"/>
     <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.88671875" style="4"/>
-    <col min="12" max="12" width="15.77734375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="10.88671875" style="4"/>
+    <col min="4" max="4" width="53.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.88671875" style="4"/>
+    <col min="10" max="10" width="15.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="J5" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="9" t="s">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1105,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -1123,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>16</v>
@@ -1140,14 +1492,8 @@
       <c r="O8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>Processes!D3</f>
         <v>ELC_DMD</v>
@@ -1156,50 +1502,62 @@
         <f>Processes!E3</f>
         <v>Portefolio electricity demand process</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="5" t="str">
-        <f>Commodities!D6</f>
-        <v>ELC</v>
-      </c>
-      <c r="F9" s="5" t="str">
         <f>Commodities!D4</f>
         <v>ELC_DEM</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>2022</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="21">
-        <v>0</v>
-      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5">
+      <c r="N9" s="5">
         <v>50</v>
       </c>
-      <c r="Q9" s="5">
-        <f>8760*3.6/10^6</f>
-        <v>3.1536000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="20"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O9" s="21">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="21" spans="7:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1209,11 +1567,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA636457-E8E9-4E1B-88BD-7AAB5EBBC414}">
+  <dimension ref="B2:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>2018</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1228,111 +1685,98 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA978A9-0BBC-43ED-9DAA-F54CD58DD46B}">
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1347,12 +1791,12 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>8</v>
@@ -1361,68 +1805,86 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1435,53 +1897,53 @@
     <col min="6" max="6" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="17.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" s="18">
         <f>50%</f>
@@ -1494,14 +1956,14 @@
         <v>ELC_DEM</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f>Commodities!$E$6</f>
-        <v xml:space="preserve">Electricity </v>
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="15">
         <v>2021</v>
@@ -1516,14 +1978,14 @@
         <v>ELC_DEM</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f>Commodities!$E$6</f>
-        <v xml:space="preserve">Electricity </v>
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="15">
         <v>2022</v>
@@ -1538,14 +2000,14 @@
         <v>ELC_DEM</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="str">
-        <f>Commodities!$E$6</f>
-        <v xml:space="preserve">Electricity </v>
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="15">
         <v>2023</v>
@@ -1561,14 +2023,14 @@
         <v>ELC_DEM</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f>Commodities!$E$6</f>
-        <v xml:space="preserve">Electricity </v>
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="15">
         <v>2024</v>
